--- a/public/data/yield_loss/yield_table_uganda.xlsx
+++ b/public/data/yield_loss/yield_table_uganda.xlsx
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6768.93</v>
+        <v>6764.07</v>
       </c>
       <c r="G4" t="n">
         <v>9.08</v>
@@ -1921,7 +1921,7 @@
         <v>23.75</v>
       </c>
       <c r="L4" t="n">
-        <v>2438.07</v>
+        <v>2436.26</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>3539.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1548.75</v>
+        <v>1548.07</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>291.94</v>
       </c>
       <c r="U4" t="n">
-        <v>5572.18</v>
+        <v>5571.85</v>
       </c>
       <c r="V4" t="n">
         <v>5.45</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8108.44</v>
+        <v>7063</v>
       </c>
       <c r="G5" t="n">
         <v>287.84</v>
@@ -1998,10 +1998,10 @@
         <v>70.4</v>
       </c>
       <c r="K5" t="n">
-        <v>34.63</v>
+        <v>31.8</v>
       </c>
       <c r="L5" t="n">
-        <v>3373.89</v>
+        <v>2955.06</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>4179.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1545.37</v>
+        <v>1394.28</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>366.65</v>
       </c>
       <c r="U5" t="n">
-        <v>8828.01</v>
+        <v>7899.31</v>
       </c>
       <c r="V5" t="n">
         <v>185.22</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>12804.68</v>
+        <v>10910.72</v>
       </c>
       <c r="G6" t="n">
         <v>802.92</v>
@@ -2078,10 +2078,10 @@
         <v>175.62</v>
       </c>
       <c r="K6" t="n">
-        <v>529.96</v>
+        <v>524.49</v>
       </c>
       <c r="L6" t="n">
-        <v>5007.32</v>
+        <v>4265.42</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>7175.02</v>
       </c>
       <c r="O6" t="n">
-        <v>1824.81</v>
+        <v>1552.3</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>431.18</v>
       </c>
       <c r="U6" t="n">
-        <v>15771.74</v>
+        <v>14513.55</v>
       </c>
       <c r="V6" t="n">
         <v>534.27</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>8809.25</v>
+        <v>8794.94</v>
       </c>
       <c r="G7" t="n">
         <v>31.83</v>
@@ -2158,10 +2158,10 @@
         <v>45.94</v>
       </c>
       <c r="K7" t="n">
-        <v>766.5</v>
+        <v>766.35</v>
       </c>
       <c r="L7" t="n">
-        <v>3862.88</v>
+        <v>3857.45</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>4894.69</v>
       </c>
       <c r="O7" t="n">
-        <v>1730.08</v>
+        <v>1728.08</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>436.13</v>
       </c>
       <c r="U7" t="n">
-        <v>6632.58</v>
+        <v>6628.52</v>
       </c>
       <c r="V7" t="n">
         <v>22.11</v>
@@ -2383,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>267.39</v>
+        <v>266.36</v>
       </c>
       <c r="G10" t="n">
         <v>93</v>
       </c>
       <c r="H10" t="n">
-        <v>50.23</v>
+        <v>48.11</v>
       </c>
       <c r="I10" t="n">
         <v>0.95</v>
@@ -2398,10 +2398,10 @@
         <v>11.01</v>
       </c>
       <c r="K10" t="n">
-        <v>36.28</v>
+        <v>36.05</v>
       </c>
       <c r="L10" t="n">
-        <v>427.12</v>
+        <v>426.35</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>436.04</v>
       </c>
       <c r="O10" t="n">
-        <v>18.38</v>
+        <v>18.33</v>
       </c>
       <c r="P10" t="n">
         <v>8.95</v>
@@ -2428,7 +2428,7 @@
         <v>248.72</v>
       </c>
       <c r="U10" t="n">
-        <v>4.1</v>
+        <v>4.13</v>
       </c>
       <c r="V10" t="n">
         <v>20.47</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>262.1</v>
+        <v>261.97</v>
       </c>
       <c r="G13" t="n">
         <v>2.42</v>
@@ -2638,10 +2638,10 @@
         <v>0.81</v>
       </c>
       <c r="K13" t="n">
-        <v>26.37</v>
+        <v>26.32</v>
       </c>
       <c r="L13" t="n">
-        <v>369</v>
+        <v>368.69</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>103.96</v>
       </c>
       <c r="O13" t="n">
-        <v>81.6</v>
+        <v>81.53</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>77.84</v>
       </c>
       <c r="U13" t="n">
-        <v>18.04</v>
+        <v>18.01</v>
       </c>
       <c r="V13" t="n">
         <v>0.92</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>4097.28</v>
+        <v>4093.73</v>
       </c>
       <c r="G27" t="n">
         <v>2.84</v>
@@ -3761,7 +3761,7 @@
         <v>9.73</v>
       </c>
       <c r="L27" t="n">
-        <v>3152.53</v>
+        <v>3150.23</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -3770,7 +3770,7 @@
         <v>1375.03</v>
       </c>
       <c r="O27" t="n">
-        <v>1089.92</v>
+        <v>1089.71</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>408.06</v>
       </c>
       <c r="U27" t="n">
-        <v>1036.17</v>
+        <v>1036.14</v>
       </c>
       <c r="V27" t="n">
         <v>4.19</v>
@@ -3841,7 +3841,7 @@
         <v>106.19</v>
       </c>
       <c r="L28" t="n">
-        <v>304.29</v>
+        <v>304.28</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>433.29</v>
       </c>
       <c r="O28" t="n">
-        <v>23.16</v>
+        <v>23.15</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>1.36</v>
       </c>
       <c r="L29" t="n">
-        <v>276.27</v>
+        <v>276.26</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1815.95</v>
+        <v>1809.79</v>
       </c>
       <c r="G44" t="n">
         <v>11.87</v>
@@ -5118,10 +5118,10 @@
         <v>34.49</v>
       </c>
       <c r="K44" t="n">
-        <v>432.9</v>
+        <v>431.39</v>
       </c>
       <c r="L44" t="n">
-        <v>755.88</v>
+        <v>753.96</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -5130,7 +5130,7 @@
         <v>609.52</v>
       </c>
       <c r="O44" t="n">
-        <v>206.55</v>
+        <v>206.26</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -5148,7 +5148,7 @@
         <v>925.34</v>
       </c>
       <c r="U44" t="n">
-        <v>225.57</v>
+        <v>225.07</v>
       </c>
       <c r="V44" t="n">
         <v>21.96</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>7074.48</v>
+        <v>7061.79</v>
       </c>
       <c r="G45" t="n">
         <v>34.84</v>
@@ -5198,10 +5198,10 @@
         <v>42.38</v>
       </c>
       <c r="K45" t="n">
-        <v>699.66</v>
+        <v>694.42</v>
       </c>
       <c r="L45" t="n">
-        <v>791.51</v>
+        <v>785.81</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>2571.57</v>
       </c>
       <c r="O45" t="n">
-        <v>117.46</v>
+        <v>116.5</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>1346.88</v>
       </c>
       <c r="U45" t="n">
-        <v>235.66</v>
+        <v>233.75</v>
       </c>
       <c r="V45" t="n">
         <v>67.15</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1275.97</v>
+        <v>1272.95</v>
       </c>
       <c r="G69" t="n">
         <v>4.07</v>
@@ -7118,10 +7118,10 @@
         <v>33.81</v>
       </c>
       <c r="K69" t="n">
-        <v>301.14</v>
+        <v>301.13</v>
       </c>
       <c r="L69" t="n">
-        <v>2345.13</v>
+        <v>2319.1</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>131.02</v>
+        <v>130.92</v>
       </c>
       <c r="G77" t="n">
         <v>1.89</v>
@@ -7758,10 +7758,10 @@
         <v>4.12</v>
       </c>
       <c r="K77" t="n">
-        <v>327.55</v>
+        <v>326.45</v>
       </c>
       <c r="L77" t="n">
-        <v>1144.12</v>
+        <v>1142.69</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>936.2</v>
       </c>
       <c r="O77" t="n">
-        <v>60.63</v>
+        <v>60.57</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -7788,7 +7788,7 @@
         <v>135.05</v>
       </c>
       <c r="U77" t="n">
-        <v>38.59</v>
+        <v>38.58</v>
       </c>
       <c r="V77" t="n">
         <v>2.51</v>
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>5053.68</v>
+        <v>5052.43</v>
       </c>
       <c r="G78" t="n">
         <v>0.95</v>
@@ -7841,7 +7841,7 @@
         <v>551.78</v>
       </c>
       <c r="L78" t="n">
-        <v>1562.31</v>
+        <v>1562.08</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -7850,7 +7850,7 @@
         <v>1539.74</v>
       </c>
       <c r="O78" t="n">
-        <v>58.96</v>
+        <v>58.95</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>47.34</v>
+        <v>50.9</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>11.86</v>
+        <v>12.63</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>988.14</v>
+        <v>991.18</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -8161,7 +8161,7 @@
         <v>8.32</v>
       </c>
       <c r="L82" t="n">
-        <v>529.38</v>
+        <v>530.52</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>814.87</v>
+        <v>813.47</v>
       </c>
       <c r="G83" t="n">
         <v>1.76</v>
@@ -8238,10 +8238,10 @@
         <v>10.15</v>
       </c>
       <c r="K83" t="n">
-        <v>108.88</v>
+        <v>108.86</v>
       </c>
       <c r="L83" t="n">
-        <v>849.68</v>
+        <v>849.27</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -8250,7 +8250,7 @@
         <v>768.19</v>
       </c>
       <c r="O83" t="n">
-        <v>1673.86</v>
+        <v>1672.3</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -8268,7 +8268,7 @@
         <v>536.46</v>
       </c>
       <c r="U83" t="n">
-        <v>597.61</v>
+        <v>596.65</v>
       </c>
       <c r="V83" t="n">
         <v>5.33</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1811.12</v>
+        <v>1809.61</v>
       </c>
       <c r="G87" t="n">
         <v>3.46</v>
@@ -8561,7 +8561,7 @@
         <v>94.83</v>
       </c>
       <c r="L87" t="n">
-        <v>817.34</v>
+        <v>816.74</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -8570,7 +8570,7 @@
         <v>4328.44</v>
       </c>
       <c r="O87" t="n">
-        <v>5884.2</v>
+        <v>5877.07</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -8588,7 +8588,7 @@
         <v>891.54</v>
       </c>
       <c r="U87" t="n">
-        <v>1356.03</v>
+        <v>1355.05</v>
       </c>
       <c r="V87" t="n">
         <v>12.08</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>982.04</v>
+        <v>972.65</v>
       </c>
       <c r="G91" t="n">
         <v>11.71</v>
@@ -8878,10 +8878,10 @@
         <v>25.16</v>
       </c>
       <c r="K91" t="n">
-        <v>48.55</v>
+        <v>48.54</v>
       </c>
       <c r="L91" t="n">
-        <v>19820.47</v>
+        <v>19580.85</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -8908,7 +8908,7 @@
         <v>17435.32</v>
       </c>
       <c r="U91" t="n">
-        <v>9.61</v>
+        <v>9.59</v>
       </c>
       <c r="V91" t="n">
         <v>47.27</v>
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1538.28</v>
+        <v>1535.67</v>
       </c>
       <c r="G98" t="n">
         <v>4.39</v>
@@ -9438,10 +9438,10 @@
         <v>9.57</v>
       </c>
       <c r="K98" t="n">
-        <v>3280.3</v>
+        <v>3278.83</v>
       </c>
       <c r="L98" t="n">
-        <v>1564.77</v>
+        <v>1559.17</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -9468,7 +9468,7 @@
         <v>438.81</v>
       </c>
       <c r="U98" t="n">
-        <v>18.47</v>
+        <v>18.46</v>
       </c>
       <c r="V98" t="n">
         <v>21.75</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>3916.58</v>
+        <v>3891.85</v>
       </c>
       <c r="G99" t="n">
         <v>27.68</v>
@@ -9518,10 +9518,10 @@
         <v>41.42</v>
       </c>
       <c r="K99" t="n">
-        <v>7215.47</v>
+        <v>7207.18</v>
       </c>
       <c r="L99" t="n">
-        <v>2476.83</v>
+        <v>2463.09</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>6476.57</v>
       </c>
       <c r="O99" t="n">
-        <v>134.26</v>
+        <v>132.51</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>96.26</v>
       </c>
       <c r="U99" t="n">
-        <v>871.91</v>
+        <v>862.48</v>
       </c>
       <c r="V99" t="n">
         <v>39.23</v>
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>686.46</v>
+        <v>685.58</v>
       </c>
       <c r="G116" t="n">
         <v>0.04</v>
@@ -10878,10 +10878,10 @@
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>45</v>
+        <v>44.99</v>
       </c>
       <c r="L116" t="n">
-        <v>30.78</v>
+        <v>30.77</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
@@ -10890,7 +10890,7 @@
         <v>52.44</v>
       </c>
       <c r="O116" t="n">
-        <v>13.36</v>
+        <v>13.35</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
@@ -11743,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>23.73</v>
+        <v>23.83</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>81.99</v>
+        <v>88.58</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
@@ -12143,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>1271.38</v>
+        <v>1262.23</v>
       </c>
       <c r="G132" t="n">
         <v>34.33</v>
@@ -12158,10 +12158,10 @@
         <v>31.76</v>
       </c>
       <c r="K132" t="n">
-        <v>120.78</v>
+        <v>120.19</v>
       </c>
       <c r="L132" t="n">
-        <v>7348.16</v>
+        <v>7275.34</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
@@ -12188,7 +12188,7 @@
         <v>12287.83</v>
       </c>
       <c r="U132" t="n">
-        <v>135.87</v>
+        <v>135.76</v>
       </c>
       <c r="V132" t="n">
         <v>48.96</v>
@@ -12303,13 +12303,13 @@
         <v>0.11</v>
       </c>
       <c r="F134" t="n">
-        <v>239.16</v>
+        <v>241.33</v>
       </c>
       <c r="G134" t="n">
         <v>49.99</v>
       </c>
       <c r="H134" t="n">
-        <v>99.36</v>
+        <v>100.82</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -12318,7 +12318,7 @@
         <v>4.79</v>
       </c>
       <c r="K134" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="L134" t="n">
         <v>95.45</v>
@@ -12330,7 +12330,7 @@
         <v>349.69</v>
       </c>
       <c r="O134" t="n">
-        <v>16.53</v>
+        <v>16.7</v>
       </c>
       <c r="P134" t="n">
         <v>1.89</v>
@@ -12348,7 +12348,7 @@
         <v>21.04</v>
       </c>
       <c r="U134" t="n">
-        <v>5.49</v>
+        <v>5.75</v>
       </c>
       <c r="V134" t="n">
         <v>15.82</v>
@@ -12783,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>412.91</v>
+        <v>412.84</v>
       </c>
       <c r="G140" t="n">
         <v>0.13</v>
@@ -12801,7 +12801,7 @@
         <v>15.66</v>
       </c>
       <c r="L140" t="n">
-        <v>1087.09</v>
+        <v>1086.88</v>
       </c>
       <c r="M140" t="n">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>443.32</v>
       </c>
       <c r="O140" t="n">
-        <v>2941.25</v>
+        <v>2940.34</v>
       </c>
       <c r="P140" t="n">
         <v>0</v>
@@ -13103,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>1204.75</v>
+        <v>1204.43</v>
       </c>
       <c r="G144" t="n">
         <v>0.48</v>
@@ -13121,7 +13121,7 @@
         <v>519.11</v>
       </c>
       <c r="L144" t="n">
-        <v>1012.3</v>
+        <v>1012.16</v>
       </c>
       <c r="M144" t="n">
         <v>0</v>
@@ -13130,7 +13130,7 @@
         <v>1783.15</v>
       </c>
       <c r="O144" t="n">
-        <v>117.21</v>
+        <v>117.2</v>
       </c>
       <c r="P144" t="n">
         <v>0</v>
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>104.81</v>
+        <v>127.21</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -13838,19 +13838,19 @@
         <v>0.15</v>
       </c>
       <c r="K153" t="n">
-        <v>8.19</v>
+        <v>8.26</v>
       </c>
       <c r="L153" t="n">
-        <v>934.89</v>
+        <v>937.84</v>
       </c>
       <c r="M153" t="n">
         <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>134.28</v>
+        <v>135.49</v>
       </c>
       <c r="O153" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="P153" t="n">
         <v>0</v>
@@ -13862,19 +13862,19 @@
         <v>0</v>
       </c>
       <c r="S153" t="n">
-        <v>19.87</v>
+        <v>19.9</v>
       </c>
       <c r="T153" t="n">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="U153" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="V153" t="n">
         <v>0</v>
       </c>
       <c r="W153" t="n">
-        <v>220.43</v>
+        <v>220.49</v>
       </c>
       <c r="X153" t="n">
         <v>0</v>
@@ -14063,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>35744.16</v>
+        <v>35722.41</v>
       </c>
       <c r="G156" t="n">
         <v>7.8</v>
@@ -14078,10 +14078,10 @@
         <v>13.87</v>
       </c>
       <c r="K156" t="n">
-        <v>995.34</v>
+        <v>995.16</v>
       </c>
       <c r="L156" t="n">
-        <v>2658.27</v>
+        <v>2656.55</v>
       </c>
       <c r="M156" t="n">
         <v>0</v>
@@ -14090,7 +14090,7 @@
         <v>3075.46</v>
       </c>
       <c r="O156" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="P156" t="n">
         <v>0</v>
@@ -14108,7 +14108,7 @@
         <v>1288.23</v>
       </c>
       <c r="U156" t="n">
-        <v>35.57</v>
+        <v>35.55</v>
       </c>
       <c r="V156" t="n">
         <v>4.29</v>
@@ -14143,7 +14143,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>45507.83</v>
+        <v>45498.73</v>
       </c>
       <c r="G157" t="n">
         <v>8.77</v>
@@ -14161,7 +14161,7 @@
         <v>1352.4</v>
       </c>
       <c r="L157" t="n">
-        <v>3822.61</v>
+        <v>3821.77</v>
       </c>
       <c r="M157" t="n">
         <v>0</v>
@@ -14170,7 +14170,7 @@
         <v>3982.24</v>
       </c>
       <c r="O157" t="n">
-        <v>7.59</v>
+        <v>7.58</v>
       </c>
       <c r="P157" t="n">
         <v>0</v>
@@ -14223,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>52197.64</v>
+        <v>52116.13</v>
       </c>
       <c r="G158" t="n">
         <v>17.98</v>
@@ -14238,10 +14238,10 @@
         <v>18.36</v>
       </c>
       <c r="K158" t="n">
-        <v>1270.18</v>
+        <v>1269.4</v>
       </c>
       <c r="L158" t="n">
-        <v>4389.56</v>
+        <v>4383.11</v>
       </c>
       <c r="M158" t="n">
         <v>0</v>
@@ -14268,7 +14268,7 @@
         <v>1684.6</v>
       </c>
       <c r="U158" t="n">
-        <v>57.65</v>
+        <v>57.63</v>
       </c>
       <c r="V158" t="n">
         <v>5.45</v>
@@ -14943,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>2099.09</v>
+        <v>2097.91</v>
       </c>
       <c r="G167" t="n">
         <v>6.45</v>
@@ -14958,10 +14958,10 @@
         <v>3.02</v>
       </c>
       <c r="K167" t="n">
-        <v>72.13</v>
+        <v>71.91</v>
       </c>
       <c r="L167" t="n">
-        <v>246.89</v>
+        <v>242.91</v>
       </c>
       <c r="M167" t="n">
         <v>0</v>
@@ -14970,7 +14970,7 @@
         <v>122.98</v>
       </c>
       <c r="O167" t="n">
-        <v>35.7</v>
+        <v>35.54</v>
       </c>
       <c r="P167" t="n">
         <v>1.3</v>
@@ -14988,7 +14988,7 @@
         <v>172.57</v>
       </c>
       <c r="U167" t="n">
-        <v>5.87</v>
+        <v>5.85</v>
       </c>
       <c r="V167" t="n">
         <v>7.16</v>
